--- a/dados_treino_CLASSIFICADO.xlsx
+++ b/dados_treino_CLASSIFICADO.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Cunha\Desktop\Atividades\C-Dados\CDADOS - DP\projeto1-cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1E82F-CE63-42F9-8AE9-E4C53574D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024ABCC0-03A7-4BB2-B38E-5A87F58F18C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="493">
   <si>
     <t>Mensagem</t>
   </si>
@@ -1499,15 +1512,6 @@
   </si>
   <si>
     <t>Target</t>
-  </si>
-  <si>
-    <t>Positivos</t>
-  </si>
-  <si>
-    <t>Negativo</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -1572,13 +1576,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,16 +1886,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="B501" sqref="B501"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="E4:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1916,44 +1919,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <f>COUNTIF(B:B, 1)</f>
-        <v>69</v>
-      </c>
-      <c r="F5">
-        <f>COUNTIF(B:B, 2)</f>
-        <v>326</v>
-      </c>
-      <c r="G5">
-        <f>COUNTIF(B:B, 0)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1961,7 +1946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +1954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1985,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1993,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +1986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2009,7 +1994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2017,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2025,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2033,7 +2018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2041,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2049,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2057,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2073,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2081,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2089,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2097,7 +2082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2105,7 +2090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +2098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2121,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2129,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2137,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2145,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2153,7 +2138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2169,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2177,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2185,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2193,7 +2178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2201,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2209,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2217,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2225,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2233,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2241,7 +2226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2249,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2257,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2265,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2273,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2281,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2289,7 +2274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2297,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2305,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2313,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2321,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2329,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2337,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2345,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2353,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2361,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2369,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2377,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2385,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2393,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2401,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2417,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2425,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2433,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2441,7 +2426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2449,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2457,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2465,7 +2450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2473,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2481,7 +2466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2489,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2497,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2505,7 +2490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2513,7 +2498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2521,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2529,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2537,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2545,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2553,7 +2538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2561,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2569,7 +2554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2577,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2585,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2593,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2601,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2609,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2617,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2625,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2633,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2641,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2649,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2657,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2665,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2673,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2681,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2689,7 +2674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2697,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2705,7 +2690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2713,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2721,7 +2706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2729,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2737,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2745,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2753,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2761,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2769,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2777,7 +2762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2785,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2793,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2801,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2809,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2817,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2825,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2833,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2841,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2849,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2857,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2865,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2873,7 +2858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2881,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2889,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2897,7 +2882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2905,7 +2890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2913,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -2921,7 +2906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -2929,7 +2914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -2937,7 +2922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2945,7 +2930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2953,7 +2938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2961,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2969,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2977,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2985,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -2993,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3001,7 +2986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3009,7 +2994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3017,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3025,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3033,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3041,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3049,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3057,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3065,7 +3050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3073,7 +3058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3081,7 +3066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3089,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3097,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3105,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3113,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3121,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3129,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3137,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3145,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3153,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3161,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3169,7 +3154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3177,7 +3162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3185,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3193,7 +3178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3201,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3209,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3217,7 +3202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3225,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3233,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3241,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3249,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3257,7 +3242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3265,7 +3250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3273,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3281,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3289,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -3297,7 +3282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -3305,7 +3290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -3313,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -3321,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -3329,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3337,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3345,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3353,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3361,7 +3346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3369,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3377,7 +3362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3385,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3393,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3401,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3409,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -3417,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -3425,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -3433,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -3441,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3449,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -3457,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -3465,7 +3450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -3473,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -3481,7 +3466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3489,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3497,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>121</v>
       </c>
@@ -3505,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -3513,7 +3498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -3521,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -3529,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -3537,7 +3522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -3545,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -3553,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -3561,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -3569,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -3577,7 +3562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -3585,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -3593,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -3601,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -3609,7 +3594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -3617,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -3625,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -3633,7 +3618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -3641,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -3649,7 +3634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -3657,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -3665,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -3673,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -3681,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -3689,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -3697,7 +3682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -3705,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -3713,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -3721,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -3729,7 +3714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -3737,7 +3722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -3745,7 +3730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -3753,7 +3738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -3761,7 +3746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -3769,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -3777,7 +3762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -3785,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -3793,7 +3778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -3801,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -3809,7 +3794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -3817,7 +3802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -3825,7 +3810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -3833,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -3841,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -3849,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -3857,7 +3842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -3865,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -3873,7 +3858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -3881,7 +3866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -3889,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -3897,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -3905,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -3913,7 +3898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -3921,7 +3906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -3929,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -3937,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -3945,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -3953,7 +3938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -3961,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -3969,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -3977,7 +3962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -3985,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -3993,7 +3978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -4001,7 +3986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -4009,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -4017,7 +4002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -4025,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -4033,7 +4018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -4041,7 +4026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -4049,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -4057,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -4065,7 +4050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -4073,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -4081,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -4089,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -4097,7 +4082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -4105,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -4113,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -4121,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -4129,7 +4114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -4137,7 +4122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -4145,7 +4130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -4153,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -4161,7 +4146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -4169,7 +4154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -4177,7 +4162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -4185,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -4193,7 +4178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -4201,7 +4186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -4209,7 +4194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -4217,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -4225,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -4233,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -4241,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -4249,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -4257,7 +4242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -4265,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -4273,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -4281,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -4289,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -4297,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -4305,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -4313,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -4321,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -4329,7 +4314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -4337,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -4345,7 +4330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -4353,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -4361,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -4369,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -4377,7 +4362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -4385,7 +4370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -4393,7 +4378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -4401,7 +4386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -4409,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -4417,7 +4402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -4425,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>313</v>
       </c>
@@ -4433,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -4441,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -4449,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -4457,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -4465,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -4473,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -4481,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -4489,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -4497,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -4505,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -4513,7 +4498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -4521,7 +4506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -4529,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -4537,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>327</v>
       </c>
@@ -4545,7 +4530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -4553,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -4561,7 +4546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -4569,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -4577,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -4585,7 +4570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -4593,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -4601,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -4609,7 +4594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -4617,7 +4602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -4625,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -4633,7 +4618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -4641,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -4649,7 +4634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -4657,7 +4642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -4665,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -4673,7 +4658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -4681,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -4689,7 +4674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -4697,7 +4682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -4705,7 +4690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -4713,7 +4698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -4721,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -4729,7 +4714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -4737,7 +4722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -4745,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -4753,7 +4738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>354</v>
       </c>
@@ -4761,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -4769,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -4777,7 +4762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -4785,7 +4770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -4793,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -4801,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -4809,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -4817,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -4825,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -4833,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -4841,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>365</v>
       </c>
@@ -4849,7 +4834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>366</v>
       </c>
@@ -4857,7 +4842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>367</v>
       </c>
@@ -4865,7 +4850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -4873,7 +4858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -4881,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>136</v>
       </c>
@@ -4889,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>370</v>
       </c>
@@ -4897,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>371</v>
       </c>
@@ -4905,7 +4890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>372</v>
       </c>
@@ -4913,7 +4898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>373</v>
       </c>
@@ -4921,7 +4906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>374</v>
       </c>
@@ -4929,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>375</v>
       </c>
@@ -4937,7 +4922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>376</v>
       </c>
@@ -4945,7 +4930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>377</v>
       </c>
@@ -4953,7 +4938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>378</v>
       </c>
@@ -4961,7 +4946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>379</v>
       </c>
@@ -4969,7 +4954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>380</v>
       </c>
@@ -4977,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>381</v>
       </c>
@@ -4985,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>382</v>
       </c>
@@ -4993,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>383</v>
       </c>
@@ -5001,7 +4986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>384</v>
       </c>
@@ -5009,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>385</v>
       </c>
@@ -5017,7 +5002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>386</v>
       </c>
@@ -5025,7 +5010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>387</v>
       </c>
@@ -5033,7 +5018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>388</v>
       </c>
@@ -5041,7 +5026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>389</v>
       </c>
@@ -5049,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>390</v>
       </c>
@@ -5057,7 +5042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>391</v>
       </c>
@@ -5065,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>392</v>
       </c>
@@ -5073,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>393</v>
       </c>
@@ -5081,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>394</v>
       </c>
@@ -5089,7 +5074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>395</v>
       </c>
@@ -5097,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>396</v>
       </c>
@@ -5105,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>397</v>
       </c>
@@ -5113,7 +5098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>88</v>
       </c>
@@ -5121,7 +5106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>398</v>
       </c>
@@ -5129,7 +5114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>399</v>
       </c>
@@ -5137,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>400</v>
       </c>
@@ -5145,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>401</v>
       </c>
@@ -5153,7 +5138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>402</v>
       </c>
@@ -5161,7 +5146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>403</v>
       </c>
@@ -5169,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>404</v>
       </c>
@@ -5177,7 +5162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>405</v>
       </c>
@@ -5185,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>406</v>
       </c>
@@ -5193,7 +5178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>407</v>
       </c>
@@ -5201,7 +5186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>408</v>
       </c>
@@ -5209,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>409</v>
       </c>
@@ -5217,7 +5202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>410</v>
       </c>
@@ -5225,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>411</v>
       </c>
@@ -5233,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>412</v>
       </c>
@@ -5241,7 +5226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>413</v>
       </c>
@@ -5249,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>414</v>
       </c>
@@ -5257,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>415</v>
       </c>
@@ -5265,7 +5250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>416</v>
       </c>
@@ -5273,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>417</v>
       </c>
@@ -5281,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>418</v>
       </c>
@@ -5289,7 +5274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>419</v>
       </c>
@@ -5297,7 +5282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>420</v>
       </c>
@@ -5305,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>421</v>
       </c>
@@ -5313,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>422</v>
       </c>
@@ -5321,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>423</v>
       </c>
@@ -5329,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>424</v>
       </c>
@@ -5337,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>425</v>
       </c>
@@ -5345,7 +5330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>426</v>
       </c>
@@ -5353,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>427</v>
       </c>
@@ -5361,7 +5346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>428</v>
       </c>
@@ -5369,7 +5354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>429</v>
       </c>
@@ -5377,7 +5362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>430</v>
       </c>
@@ -5385,7 +5370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>431</v>
       </c>
@@ -5393,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>432</v>
       </c>
@@ -5401,7 +5386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>433</v>
       </c>
@@ -5409,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>434</v>
       </c>
@@ -5417,7 +5402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>435</v>
       </c>
@@ -5425,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>436</v>
       </c>
@@ -5433,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>179</v>
       </c>
@@ -5441,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>437</v>
       </c>
@@ -5449,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>438</v>
       </c>
@@ -5457,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>439</v>
       </c>
@@ -5465,7 +5450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>440</v>
       </c>
@@ -5473,7 +5458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>441</v>
       </c>
@@ -5481,7 +5466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>442</v>
       </c>
@@ -5489,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>397</v>
       </c>
@@ -5497,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>443</v>
       </c>
@@ -5505,7 +5490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>444</v>
       </c>
@@ -5513,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>445</v>
       </c>
@@ -5521,7 +5506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>446</v>
       </c>
@@ -5529,7 +5514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>447</v>
       </c>
@@ -5537,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>448</v>
       </c>
@@ -5545,7 +5530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>449</v>
       </c>
@@ -5553,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>450</v>
       </c>
@@ -5561,7 +5546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>451</v>
       </c>
@@ -5569,7 +5554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>452</v>
       </c>
@@ -5577,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>453</v>
       </c>
@@ -5585,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>454</v>
       </c>
@@ -5593,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>455</v>
       </c>
@@ -5601,7 +5586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>456</v>
       </c>
@@ -5609,7 +5594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>457</v>
       </c>
@@ -5617,7 +5602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>458</v>
       </c>
@@ -5625,7 +5610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>459</v>
       </c>
@@ -5633,7 +5618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>460</v>
       </c>
@@ -5641,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>461</v>
       </c>
@@ -5649,7 +5634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>462</v>
       </c>
@@ -5657,7 +5642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>463</v>
       </c>
@@ -5665,7 +5650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>464</v>
       </c>
@@ -5673,7 +5658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>465</v>
       </c>
@@ -5681,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>225</v>
       </c>
@@ -5689,7 +5674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>466</v>
       </c>
@@ -5697,7 +5682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>467</v>
       </c>
@@ -5705,7 +5690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>125</v>
       </c>
@@ -5713,7 +5698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>468</v>
       </c>
@@ -5721,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>469</v>
       </c>
@@ -5729,7 +5714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>470</v>
       </c>
@@ -5737,7 +5722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>471</v>
       </c>
@@ -5745,7 +5730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>472</v>
       </c>
@@ -5753,7 +5738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>473</v>
       </c>
@@ -5761,7 +5746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>474</v>
       </c>
@@ -5769,7 +5754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>475</v>
       </c>
@@ -5777,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>214</v>
       </c>
@@ -5785,7 +5770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>476</v>
       </c>
@@ -5793,7 +5778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>477</v>
       </c>
@@ -5801,7 +5786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>478</v>
       </c>
@@ -5809,7 +5794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>479</v>
       </c>
@@ -5817,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>480</v>
       </c>
@@ -5825,7 +5810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>481</v>
       </c>
@@ -5833,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>482</v>
       </c>
@@ -5841,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>210</v>
       </c>
@@ -5849,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>483</v>
       </c>
@@ -5857,7 +5842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>484</v>
       </c>
@@ -5865,7 +5850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>485</v>
       </c>
@@ -5873,7 +5858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>486</v>
       </c>
@@ -5881,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>487</v>
       </c>
@@ -5889,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>488</v>
       </c>
@@ -5897,7 +5882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>489</v>
       </c>
@@ -5905,7 +5890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>490</v>
       </c>
@@ -5913,11 +5898,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>491</v>
       </c>
-      <c r="B501" s="3">
+      <c r="B501">
         <v>2</v>
       </c>
     </row>
